--- a/tp1_fisica/estudio_aceleraciones_M100_papel.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M100_papel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>m</t>
   </si>
@@ -22,12 +22,6 @@
     <t>t, arduino</t>
   </si>
   <si>
-    <t>1000,1306.00</t>
-  </si>
-  <si>
-    <t>1250,1232.00</t>
-  </si>
-  <si>
     <t>1500,1214.00</t>
   </si>
   <si>
@@ -43,45 +37,6 @@
     <t>2500,3068.00</t>
   </si>
   <si>
-    <t>2750,3010.00</t>
-  </si>
-  <si>
-    <t>1250,1214.00</t>
-  </si>
-  <si>
-    <t>1750,1390.00</t>
-  </si>
-  <si>
-    <t>2000,2176.00</t>
-  </si>
-  <si>
-    <t>2250,3446.00</t>
-  </si>
-  <si>
-    <t>2500,3430.00</t>
-  </si>
-  <si>
-    <t>2750,3625.00</t>
-  </si>
-  <si>
-    <t>3000,3675.00</t>
-  </si>
-  <si>
-    <t>250,1214.00</t>
-  </si>
-  <si>
-    <t>500,1288.00</t>
-  </si>
-  <si>
-    <t>750,1214.00</t>
-  </si>
-  <si>
-    <t>1000,1288.00</t>
-  </si>
-  <si>
-    <t>1250,1288.00</t>
-  </si>
-  <si>
     <t>1500,1340.00</t>
   </si>
   <si>
@@ -91,21 +46,6 @@
     <t>2000,2645.00</t>
   </si>
   <si>
-    <t>2250,69485.00</t>
-  </si>
-  <si>
-    <t>2500,3642.00</t>
-  </si>
-  <si>
-    <t>2750,3837.00</t>
-  </si>
-  <si>
-    <t>3000,2920.00</t>
-  </si>
-  <si>
-    <t>500,1214.00</t>
-  </si>
-  <si>
     <t>750,1195.00</t>
   </si>
   <si>
@@ -119,9 +59,6 @@
   </si>
   <si>
     <t>1750,2961.00</t>
-  </si>
-  <si>
-    <t>2000,2980.00</t>
   </si>
 </sst>
 </file>
@@ -450,8 +387,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="4">
+        <v>71.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>133.1</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -472,10 +413,12 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>71.6</v>
+        <f>22.07+ 22.15</f>
+        <v>44.22</v>
       </c>
       <c r="B10" s="3">
-        <v>111.03</v>
+        <f>22.29+5.36 + 111.03</f>
+        <v>138.68</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -485,193 +428,34 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>71.6</v>
-      </c>
-      <c r="B18" s="3">
-        <v>133.1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <f>22.07+ 22.15</f>
-        <v>44.22</v>
-      </c>
-      <c r="B30" s="3">
-        <f>22.29+5.36 + 111.03</f>
-        <v>138.68</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
